--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H2">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N2">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O2">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P2">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q2">
-        <v>0.005876621577777777</v>
+        <v>0.001846153551666666</v>
       </c>
       <c r="R2">
-        <v>0.05288959419999999</v>
+        <v>0.016615381965</v>
       </c>
       <c r="S2">
-        <v>0.0001655824676354637</v>
+        <v>5.206703556836706E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001655824676354637</v>
+        <v>5.206703556836707E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H3">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.949371</v>
       </c>
       <c r="O3">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P3">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q3">
-        <v>0.567802434588889</v>
+        <v>0.7742549469221112</v>
       </c>
       <c r="R3">
-        <v>5.1102219113</v>
+        <v>6.968294522299</v>
       </c>
       <c r="S3">
-        <v>0.01599866981467349</v>
+        <v>0.02183629840756414</v>
       </c>
       <c r="T3">
-        <v>0.01599866981467349</v>
+        <v>0.02183629840756414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H4">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N4">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O4">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P4">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q4">
-        <v>0.04856333201111113</v>
+        <v>0.06622092079588889</v>
       </c>
       <c r="R4">
-        <v>0.4370699881000001</v>
+        <v>0.595988287163</v>
       </c>
       <c r="S4">
-        <v>0.001368343400127672</v>
+        <v>0.001867627443739364</v>
       </c>
       <c r="T4">
-        <v>0.001368343400127672</v>
+        <v>0.001867627443739364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.13889</v>
       </c>
       <c r="I5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N5">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O5">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P5">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q5">
-        <v>0.06672807127333331</v>
+        <v>0.01537311685</v>
       </c>
       <c r="R5">
-        <v>0.6005526414599999</v>
+        <v>0.13835805165</v>
       </c>
       <c r="S5">
-        <v>0.001880161680611697</v>
+        <v>0.0004335677393156165</v>
       </c>
       <c r="T5">
-        <v>0.001880161680611698</v>
+        <v>0.0004335677393156166</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.13889</v>
       </c>
       <c r="I6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.949371</v>
       </c>
       <c r="O6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q6">
         <v>6.447303237576667</v>
@@ -818,10 +818,10 @@
         <v>58.02572913818999</v>
       </c>
       <c r="S6">
-        <v>0.1816622638607526</v>
+        <v>0.1818331777916832</v>
       </c>
       <c r="T6">
-        <v>0.1816622638607526</v>
+        <v>0.1818331777916832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.13889</v>
       </c>
       <c r="I7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N7">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O7">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P7">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q7">
-        <v>0.5514286460033334</v>
+        <v>0.5514286460033333</v>
       </c>
       <c r="R7">
-        <v>4.96285781403</v>
+        <v>4.962857814029999</v>
       </c>
       <c r="S7">
-        <v>0.01553731420709276</v>
+        <v>0.01555193223172155</v>
       </c>
       <c r="T7">
-        <v>0.01553731420709276</v>
+        <v>0.01555193223172155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N8">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O8">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P8">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q8">
-        <v>0.2625779397846666</v>
+        <v>0.060493901195</v>
       </c>
       <c r="R8">
-        <v>2.363201458062</v>
+        <v>0.544445110755</v>
       </c>
       <c r="S8">
-        <v>0.00739852016005129</v>
+        <v>0.001706108412458884</v>
       </c>
       <c r="T8">
-        <v>0.007398520160051291</v>
+        <v>0.001706108412458885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>50.949371</v>
       </c>
       <c r="O9">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P9">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q9">
         <v>25.37042610381034</v>
@@ -1004,10 +1004,10 @@
         <v>228.333834934293</v>
       </c>
       <c r="S9">
-        <v>0.7148491192826905</v>
+        <v>0.7155216732319934</v>
       </c>
       <c r="T9">
-        <v>0.7148491192826905</v>
+        <v>0.7155216732319936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N10">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O10">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P10">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q10">
         <v>2.169896342615667</v>
@@ -1066,10 +1066,10 @@
         <v>19.529067083541</v>
       </c>
       <c r="S10">
-        <v>0.06114002512636461</v>
+        <v>0.06119754770595524</v>
       </c>
       <c r="T10">
-        <v>0.06114002512636463</v>
+        <v>0.06119754770595524</v>
       </c>
     </row>
   </sheetData>
